--- a/andes/cases/kundur/kundur_ieeeg1.xlsx
+++ b/andes/cases/kundur/kundur_ieeeg1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hcui7/repos/andes/andes/cases/kundur/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAFC54D-E513-EA42-97E2-57FA752F768E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857CF7FD-4437-5949-8729-16F0DD69C8E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36740" yWindow="8540" windowWidth="24100" windowHeight="12100" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -3399,7 +3399,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z4" sqref="Z4"/>
+      <selection pane="bottomLeft" activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3537,7 +3537,7 @@
         <v>0.4</v>
       </c>
       <c r="R2">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -3546,7 +3546,7 @@
         <v>10</v>
       </c>
       <c r="U2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -3617,7 +3617,7 @@
         <v>0.4</v>
       </c>
       <c r="R3">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>10</v>
       </c>
       <c r="U3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -3700,7 +3700,7 @@
         <v>0.4</v>
       </c>
       <c r="R4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>10</v>
       </c>
       <c r="U4">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="Z4">
         <v>0.1</v>
@@ -3730,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">

--- a/andes/cases/kundur/kundur_ieeeg1.xlsx
+++ b/andes/cases/kundur/kundur_ieeeg1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hcui7/repos/andes/andes/cases/kundur/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857CF7FD-4437-5949-8729-16F0DD69C8E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22364E58-884F-8549-89D5-5FE241F1D4D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="134">
   <si>
     <t>idx</t>
   </si>
@@ -404,12 +404,6 @@
   </si>
   <si>
     <t>SE2</t>
-  </si>
-  <si>
-    <t>Ae</t>
-  </si>
-  <si>
-    <t>Be</t>
   </si>
   <si>
     <t>EXDC2_1</t>
@@ -1361,13 +1355,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1381,10 +1375,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
         <v>51</v>
@@ -3397,7 +3391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="U2" sqref="U2"/>
     </sheetView>
@@ -3743,16 +3737,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -3813,25 +3807,19 @@
       <c r="T1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="U1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>125</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>127</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -3881,14 +3869,8 @@
       <c r="T2">
         <v>0</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3899,7 +3881,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -3949,14 +3931,8 @@
       <c r="T3">
         <v>0</v>
       </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3967,7 +3943,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -4017,14 +3993,8 @@
       <c r="T4">
         <v>0</v>
       </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4035,7 +4005,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -4083,12 +4053,6 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
         <v>0</v>
       </c>
     </row>

--- a/andes/cases/kundur/kundur_ieeeg1.xlsx
+++ b/andes/cases/kundur/kundur_ieeeg1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hcui7/repos/andes/andes/cases/kundur/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22364E58-884F-8549-89D5-5FE241F1D4D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBAACBD-A351-A24C-B89D-F8E3EC0E011D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3741,7 +3741,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T3" sqref="T3"/>
+      <selection pane="bottomLeft" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -3926,10 +3926,10 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -4050,10 +4050,10 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
